--- a/configs/SalesforceData.xlsx
+++ b/configs/SalesforceData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raheel\eclipse-workspace\MailinatorTest\configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9A7D1F-80CD-4F03-B2D3-D49653C2EA7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D74778-AB67-4F10-9BED-FAE0D218D1A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="25">
   <si>
     <t>fname</t>
   </si>
@@ -39,40 +39,67 @@
     <t>email</t>
   </si>
   <si>
-    <t>Nadia1</t>
-  </si>
-  <si>
-    <t>Gutkowski</t>
-  </si>
-  <si>
-    <t>465-335-9122</t>
-  </si>
-  <si>
-    <t>NadiaGutkowski@gmail.com</t>
-  </si>
-  <si>
-    <t>Nadia2</t>
-  </si>
-  <si>
-    <t>Nadia3</t>
-  </si>
-  <si>
-    <t>Nadia4</t>
-  </si>
-  <si>
-    <t>Nadia5</t>
-  </si>
-  <si>
-    <t>Nadia6</t>
-  </si>
-  <si>
-    <t>Nadia7</t>
-  </si>
-  <si>
-    <t>Nadia8</t>
-  </si>
-  <si>
-    <t>Nadia9</t>
+    <t>Carissa</t>
+  </si>
+  <si>
+    <t>334-670-4411</t>
+  </si>
+  <si>
+    <t>JaysonOlson@gmail.com</t>
+  </si>
+  <si>
+    <t>Jayson3</t>
+  </si>
+  <si>
+    <t>Jayson4</t>
+  </si>
+  <si>
+    <t>Jayson5</t>
+  </si>
+  <si>
+    <t>Jayson6</t>
+  </si>
+  <si>
+    <t>Jayson7</t>
+  </si>
+  <si>
+    <t>Jayson8</t>
+  </si>
+  <si>
+    <t>Jayson9</t>
+  </si>
+  <si>
+    <t>Jayson10</t>
+  </si>
+  <si>
+    <t>Jayson11</t>
+  </si>
+  <si>
+    <t>Jayson12</t>
+  </si>
+  <si>
+    <t>Jayson13</t>
+  </si>
+  <si>
+    <t>Jayson14</t>
+  </si>
+  <si>
+    <t>Jayson15</t>
+  </si>
+  <si>
+    <t>Jayson16</t>
+  </si>
+  <si>
+    <t>Jayson17</t>
+  </si>
+  <si>
+    <t>Jayson18</t>
+  </si>
+  <si>
+    <t>Jayson19</t>
+  </si>
+  <si>
+    <t>Jayson20</t>
   </si>
 </sst>
 </file>
@@ -391,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,6 +440,76 @@
         <v>3</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
